--- a/Assets/StreamingAssets/2_Garden_Training.xlsx
+++ b/Assets/StreamingAssets/2_Garden_Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286CA7FF-B718-3243-B8A8-81D497EB9C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4B67E-7698-7A4F-977A-8A90D69182B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="87">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, this young lady’s skills seem quite impressive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yaochong, you’re being too hasty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Look at the way she swings the weapon—when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I see. Master, you’re amazing—you can spot these details just from a few moves.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>May I ask the young lady’s name?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,22 +213,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Li Chen, the best martial artist in this entire manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My apologies, Miss Li—you must be the top disciple of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,18 +237,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enough chatting—who are you anyway?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We came from Luoyang and passed through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,18 +285,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello—may I ask if you’re a physician?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,14 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I practice medicine in the town at the foot of the mountain. I came up a few days ago for a consultation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you familiar with the manor’s master?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +330,58 @@
   </si>
   <si>
     <t>Ladder1</t>
+  </si>
+  <si>
+    <t>Sir, this young lady’s skills seem quite impressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, you’re being too hasty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Chen, the best martial artist in this entire manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see. You’re amazing——you can spot these details just from a few moves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I ask your name please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My apologies, you must be the top disciple of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enough chatting——who are you anyway?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello——may I ask if you’re a physician?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I practice medicine in JiuJiang county at the foot of the mountain. I came up a few days ago for a consultation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you familiar with the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F42"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -867,7 +867,7 @@
     </row>
     <row r="2" spans="1:16" ht="51">
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -915,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -990,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1013,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1036,10 +1036,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1052,15 +1052,13 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1075,12 +1073,12 @@
         <v>500</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1097,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1114,13 +1112,13 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1134,13 +1132,13 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1157,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1174,13 +1172,13 @@
     </row>
     <row r="17" spans="1:12" ht="34">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1196,7 +1194,7 @@
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1208,7 +1206,7 @@
     <row r="19" spans="1:12" ht="51">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
@@ -1229,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1252,13 +1250,13 @@
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1276,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
@@ -1284,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1307,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1327,13 +1325,13 @@
     </row>
     <row r="24" spans="1:12" ht="34">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1350,13 +1348,13 @@
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1373,7 +1371,7 @@
     </row>
     <row r="26" spans="1:12" ht="34">
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1392,7 +1390,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1406,7 +1404,7 @@
     </row>
     <row r="28" spans="1:12" ht="34">
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1422,52 +1420,52 @@
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>23</v>
@@ -1476,7 +1474,7 @@
         <v>500</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17">
@@ -1484,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1493,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1501,19 +1499,19 @@
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1521,19 +1519,19 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1544,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1553,7 +1551,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1561,19 +1559,19 @@
     </row>
     <row r="37" spans="1:12" ht="17">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1584,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1593,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1601,19 +1599,19 @@
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1621,13 +1619,13 @@
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
@@ -1643,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17">
@@ -1654,10 +1652,10 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Garden_Training.xlsx
+++ b/Assets/StreamingAssets/2_Garden_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4B67E-7698-7A4F-977A-8A90D69182B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77458C2-764A-CF40-9F61-5B91B98A2AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts masters there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +378,9 @@
   <si>
     <t>Are you familiar with the Lord?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts Lords there.</t>
   </si>
 </sst>
 </file>
@@ -867,7 +866,7 @@
     </row>
     <row r="2" spans="1:16" ht="51">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -915,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -944,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1036,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1095,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1112,7 +1111,7 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1135,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -1155,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1175,7 +1174,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -1253,7 +1252,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -1282,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1328,10 +1327,10 @@
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1351,7 +1350,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
@@ -1371,7 +1370,7 @@
     </row>
     <row r="26" spans="1:12" ht="34">
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1390,7 +1389,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1404,7 +1403,7 @@
     </row>
     <row r="28" spans="1:12" ht="34">
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1420,52 +1419,52 @@
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>23</v>
@@ -1474,7 +1473,7 @@
         <v>500</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17">
@@ -1482,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1491,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -1499,19 +1498,19 @@
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1519,19 +1518,19 @@
     </row>
     <row r="35" spans="1:12" ht="34">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1542,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -1551,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1559,19 +1558,19 @@
     </row>
     <row r="37" spans="1:12" ht="17">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1582,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1591,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1599,19 +1598,19 @@
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1619,13 +1618,13 @@
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>17</v>
@@ -1641,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17">
@@ -1652,10 +1651,10 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
         <v>72</v>
-      </c>
-      <c r="E42" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
